--- a/Documentation/Pokemon_learnset_rebalance/020_Raticate.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/020_Raticate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947339D-0CFC-4DFB-B758-5CA70081A11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A435F-8C15-4569-B6F0-54C0C2EE3821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>Quick Attack</t>
   </si>
   <si>
-    <t>Covet</t>
-  </si>
-  <si>
     <t>Odor Sleuth</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Bite</t>
   </si>
 </sst>
 </file>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -848,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -896,7 +896,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -945,7 +945,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.35">
@@ -1044,7 +1044,7 @@
         <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.35">
@@ -1063,7 +1063,7 @@
         <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.35">
@@ -1202,7 +1202,7 @@
         <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.35">
@@ -1229,7 +1229,7 @@
         <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.35">
